--- a/data/2023/ssg/7,38_DE-12.xlsx
+++ b/data/2023/ssg/7,38_DE-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="595">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -1382,12 +1382,6 @@
   </si>
   <si>
     <t>KF;NL</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>3;7;8;9;18;19;20;26;28;29;92;1102;946;84;89;90;95;Mh 39;355;898;1046;155;384;Aug 4;37;473;517;703;739;824;573;150;551;552;Lün 4;Wim 2;542;546;706;960/1;960/3;Re 13</t>
   </si>
   <si>
     <t>2602416-0</t>
@@ -7141,15 +7135,15 @@
         <v>31</v>
       </c>
       <c r="X65" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="Y65" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B66" t="s">
         <v>154</v>
@@ -7158,13 +7152,13 @@
         <v>27</v>
       </c>
       <c r="D66" t="s">
+        <v>457</v>
+      </c>
+      <c r="E66" t="s">
+        <v>458</v>
+      </c>
+      <c r="F66" t="s">
         <v>459</v>
-      </c>
-      <c r="E66" t="s">
-        <v>460</v>
-      </c>
-      <c r="F66" t="s">
-        <v>461</v>
       </c>
       <c r="G66" t="s">
         <v>197</v>
@@ -7200,13 +7194,13 @@
         <v>31</v>
       </c>
       <c r="R66" t="s">
+        <v>460</v>
+      </c>
+      <c r="S66" t="s">
+        <v>461</v>
+      </c>
+      <c r="T66" t="s">
         <v>462</v>
-      </c>
-      <c r="S66" t="s">
-        <v>463</v>
-      </c>
-      <c r="T66" t="s">
-        <v>464</v>
       </c>
       <c r="U66" t="s">
         <v>71</v>
@@ -7218,15 +7212,15 @@
         <v>31</v>
       </c>
       <c r="X66" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Y66" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -7241,7 +7235,7 @@
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G67" t="s">
         <v>67</v>
@@ -7250,10 +7244,10 @@
         <v>31</v>
       </c>
       <c r="I67" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J67" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K67" t="s">
         <v>33</v>
@@ -7274,10 +7268,10 @@
         <v>31</v>
       </c>
       <c r="Q67" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="R67" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="S67" t="s">
         <v>31</v>
@@ -7312,13 +7306,13 @@
         <v>27</v>
       </c>
       <c r="D68" t="s">
+        <v>471</v>
+      </c>
+      <c r="E68" t="s">
+        <v>472</v>
+      </c>
+      <c r="F68" t="s">
         <v>473</v>
-      </c>
-      <c r="E68" t="s">
-        <v>474</v>
-      </c>
-      <c r="F68" t="s">
-        <v>475</v>
       </c>
       <c r="G68" t="s">
         <v>67</v>
@@ -7348,13 +7342,13 @@
         <v>31</v>
       </c>
       <c r="P68" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q68" t="s">
         <v>343</v>
       </c>
       <c r="R68" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="S68" t="s">
         <v>31</v>
@@ -7428,13 +7422,13 @@
         <v>31</v>
       </c>
       <c r="Q69" t="s">
+        <v>476</v>
+      </c>
+      <c r="R69" t="s">
+        <v>477</v>
+      </c>
+      <c r="S69" t="s">
         <v>478</v>
-      </c>
-      <c r="R69" t="s">
-        <v>479</v>
-      </c>
-      <c r="S69" t="s">
-        <v>480</v>
       </c>
       <c r="T69" t="s">
         <v>189</v>
@@ -7449,10 +7443,10 @@
         <v>31</v>
       </c>
       <c r="X69" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Y69" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -7466,7 +7460,7 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E70" t="s">
         <v>310</v>
@@ -7475,13 +7469,13 @@
         <v>378</v>
       </c>
       <c r="G70" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H70" t="s">
         <v>31</v>
       </c>
       <c r="I70" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J70" t="s">
         <v>388</v>
@@ -7508,10 +7502,10 @@
         <v>375</v>
       </c>
       <c r="R70" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="S70" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="T70" t="s">
         <v>355</v>
@@ -7526,15 +7520,15 @@
         <v>31</v>
       </c>
       <c r="X70" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Y70" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -7543,10 +7537,10 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E71" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F71" t="s">
         <v>175</v>
@@ -7585,7 +7579,7 @@
         <v>31</v>
       </c>
       <c r="R71" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="S71" t="s">
         <v>31</v>
@@ -7611,7 +7605,7 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B72" t="s">
         <v>154</v>
@@ -7620,25 +7614,25 @@
         <v>27</v>
       </c>
       <c r="D72" t="s">
+        <v>493</v>
+      </c>
+      <c r="E72" t="s">
+        <v>494</v>
+      </c>
+      <c r="F72" t="s">
         <v>495</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
         <v>496</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" t="s">
         <v>497</v>
-      </c>
-      <c r="G72" t="s">
-        <v>498</v>
-      </c>
-      <c r="H72" t="s">
-        <v>31</v>
-      </c>
-      <c r="I72" t="s">
-        <v>31</v>
-      </c>
-      <c r="J72" t="s">
-        <v>499</v>
       </c>
       <c r="K72" t="s">
         <v>33</v>
@@ -7665,7 +7659,7 @@
         <v>314</v>
       </c>
       <c r="S72" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="T72" t="s">
         <v>189</v>
@@ -7680,15 +7674,15 @@
         <v>31</v>
       </c>
       <c r="X72" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Y72" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B73" t="s">
         <v>154</v>
@@ -7697,13 +7691,13 @@
         <v>27</v>
       </c>
       <c r="D73" t="s">
+        <v>471</v>
+      </c>
+      <c r="E73" t="s">
+        <v>472</v>
+      </c>
+      <c r="F73" t="s">
         <v>473</v>
-      </c>
-      <c r="E73" t="s">
-        <v>474</v>
-      </c>
-      <c r="F73" t="s">
-        <v>475</v>
       </c>
       <c r="G73" t="s">
         <v>67</v>
@@ -7739,13 +7733,13 @@
         <v>31</v>
       </c>
       <c r="R73" t="s">
+        <v>502</v>
+      </c>
+      <c r="S73" t="s">
+        <v>503</v>
+      </c>
+      <c r="T73" t="s">
         <v>504</v>
-      </c>
-      <c r="S73" t="s">
-        <v>505</v>
-      </c>
-      <c r="T73" t="s">
-        <v>506</v>
       </c>
       <c r="U73" t="s">
         <v>71</v>
@@ -7760,12 +7754,12 @@
         <v>356</v>
       </c>
       <c r="Y73" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B74" t="s">
         <v>154</v>
@@ -7777,10 +7771,10 @@
         <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F74" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G74" t="s">
         <v>67</v>
@@ -7789,10 +7783,10 @@
         <v>31</v>
       </c>
       <c r="I74" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J74" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K74" t="s">
         <v>33</v>
@@ -7813,13 +7807,13 @@
         <v>31</v>
       </c>
       <c r="Q74" t="s">
+        <v>509</v>
+      </c>
+      <c r="R74" t="s">
+        <v>510</v>
+      </c>
+      <c r="S74" t="s">
         <v>511</v>
-      </c>
-      <c r="R74" t="s">
-        <v>512</v>
-      </c>
-      <c r="S74" t="s">
-        <v>513</v>
       </c>
       <c r="T74" t="s">
         <v>165</v>
@@ -7834,15 +7828,15 @@
         <v>31</v>
       </c>
       <c r="X74" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Y74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -7851,10 +7845,10 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E75" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F75" t="s">
         <v>175</v>
@@ -7866,7 +7860,7 @@
         <v>31</v>
       </c>
       <c r="I75" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J75" t="s">
         <v>68</v>
@@ -7893,7 +7887,7 @@
         <v>31</v>
       </c>
       <c r="R75" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S75" t="s">
         <v>31</v>
@@ -7919,7 +7913,7 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -7928,10 +7922,10 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E76" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F76" t="s">
         <v>196</v>
@@ -7970,7 +7964,7 @@
         <v>31</v>
       </c>
       <c r="R76" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="S76" t="s">
         <v>31</v>
@@ -8005,7 +7999,7 @@
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E77" t="s">
         <v>29</v>
@@ -8047,7 +8041,7 @@
         <v>292</v>
       </c>
       <c r="R77" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S77" t="s">
         <v>31</v>
@@ -8073,7 +8067,7 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B78" t="s">
         <v>154</v>
@@ -8082,13 +8076,13 @@
         <v>27</v>
       </c>
       <c r="D78" t="s">
+        <v>526</v>
+      </c>
+      <c r="E78" t="s">
+        <v>527</v>
+      </c>
+      <c r="F78" t="s">
         <v>528</v>
-      </c>
-      <c r="E78" t="s">
-        <v>529</v>
-      </c>
-      <c r="F78" t="s">
-        <v>530</v>
       </c>
       <c r="G78" t="s">
         <v>197</v>
@@ -8124,10 +8118,10 @@
         <v>31</v>
       </c>
       <c r="R78" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S78" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="T78" t="s">
         <v>189</v>
@@ -8142,15 +8136,15 @@
         <v>31</v>
       </c>
       <c r="X78" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Y78" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B79" t="s">
         <v>154</v>
@@ -8159,13 +8153,13 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
+        <v>534</v>
+      </c>
+      <c r="E79" t="s">
+        <v>535</v>
+      </c>
+      <c r="F79" t="s">
         <v>536</v>
-      </c>
-      <c r="E79" t="s">
-        <v>537</v>
-      </c>
-      <c r="F79" t="s">
-        <v>538</v>
       </c>
       <c r="G79" t="s">
         <v>216</v>
@@ -8174,40 +8168,40 @@
         <v>31</v>
       </c>
       <c r="I79" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K79" t="s">
         <v>33</v>
       </c>
       <c r="L79" t="s">
+        <v>539</v>
+      </c>
+      <c r="M79" t="s">
+        <v>31</v>
+      </c>
+      <c r="N79" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" t="s">
+        <v>31</v>
+      </c>
+      <c r="P79" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>31</v>
+      </c>
+      <c r="R79" t="s">
+        <v>540</v>
+      </c>
+      <c r="S79" t="s">
         <v>541</v>
       </c>
-      <c r="M79" t="s">
-        <v>31</v>
-      </c>
-      <c r="N79" t="s">
-        <v>31</v>
-      </c>
-      <c r="O79" t="s">
-        <v>31</v>
-      </c>
-      <c r="P79" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>31</v>
-      </c>
-      <c r="R79" t="s">
+      <c r="T79" t="s">
         <v>542</v>
-      </c>
-      <c r="S79" t="s">
-        <v>543</v>
-      </c>
-      <c r="T79" t="s">
-        <v>544</v>
       </c>
       <c r="U79" t="s">
         <v>71</v>
@@ -8222,12 +8216,12 @@
         <v>422</v>
       </c>
       <c r="Y79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -8236,49 +8230,49 @@
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E80" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F80" t="s">
         <v>50</v>
       </c>
       <c r="G80" t="s">
+        <v>547</v>
+      </c>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s">
+        <v>548</v>
+      </c>
+      <c r="J80" t="s">
         <v>549</v>
       </c>
-      <c r="H80" t="s">
-        <v>31</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="K80" t="s">
         <v>550</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" t="s">
+        <v>31</v>
+      </c>
+      <c r="M80" t="s">
+        <v>31</v>
+      </c>
+      <c r="N80" t="s">
+        <v>31</v>
+      </c>
+      <c r="O80" t="s">
+        <v>31</v>
+      </c>
+      <c r="P80" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>31</v>
+      </c>
+      <c r="R80" t="s">
         <v>551</v>
-      </c>
-      <c r="K80" t="s">
-        <v>552</v>
-      </c>
-      <c r="L80" t="s">
-        <v>31</v>
-      </c>
-      <c r="M80" t="s">
-        <v>31</v>
-      </c>
-      <c r="N80" t="s">
-        <v>31</v>
-      </c>
-      <c r="O80" t="s">
-        <v>31</v>
-      </c>
-      <c r="P80" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>31</v>
-      </c>
-      <c r="R80" t="s">
-        <v>553</v>
       </c>
       <c r="S80" t="s">
         <v>31</v>
@@ -8304,7 +8298,7 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B81" t="s">
         <v>154</v>
@@ -8313,17 +8307,17 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
+        <v>553</v>
+      </c>
+      <c r="E81" t="s">
+        <v>554</v>
+      </c>
+      <c r="F81" t="s">
         <v>555</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>556</v>
       </c>
-      <c r="F81" t="s">
-        <v>557</v>
-      </c>
-      <c r="G81" t="s">
-        <v>558</v>
-      </c>
       <c r="H81" t="s">
         <v>31</v>
       </c>
@@ -8331,34 +8325,34 @@
         <v>31</v>
       </c>
       <c r="J81" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K81" t="s">
         <v>33</v>
       </c>
       <c r="L81" t="s">
+        <v>557</v>
+      </c>
+      <c r="M81" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" t="s">
+        <v>31</v>
+      </c>
+      <c r="O81" t="s">
+        <v>31</v>
+      </c>
+      <c r="P81" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>31</v>
+      </c>
+      <c r="R81" t="s">
+        <v>558</v>
+      </c>
+      <c r="S81" t="s">
         <v>559</v>
-      </c>
-      <c r="M81" t="s">
-        <v>31</v>
-      </c>
-      <c r="N81" t="s">
-        <v>31</v>
-      </c>
-      <c r="O81" t="s">
-        <v>31</v>
-      </c>
-      <c r="P81" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>31</v>
-      </c>
-      <c r="R81" t="s">
-        <v>560</v>
-      </c>
-      <c r="S81" t="s">
-        <v>561</v>
       </c>
       <c r="T81" t="s">
         <v>364</v>
@@ -8373,15 +8367,15 @@
         <v>31</v>
       </c>
       <c r="X81" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Y81" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B82" t="s">
         <v>154</v>
@@ -8390,13 +8384,13 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
+        <v>563</v>
+      </c>
+      <c r="E82" t="s">
+        <v>564</v>
+      </c>
+      <c r="F82" t="s">
         <v>565</v>
-      </c>
-      <c r="E82" t="s">
-        <v>566</v>
-      </c>
-      <c r="F82" t="s">
-        <v>567</v>
       </c>
       <c r="G82" t="s">
         <v>197</v>
@@ -8405,10 +8399,10 @@
         <v>31</v>
       </c>
       <c r="I82" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J82" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K82" t="s">
         <v>33</v>
@@ -8432,10 +8426,10 @@
         <v>31</v>
       </c>
       <c r="R82" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S82" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T82" t="s">
         <v>165</v>
@@ -8450,15 +8444,15 @@
         <v>31</v>
       </c>
       <c r="X82" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Y82" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -8467,13 +8461,13 @@
         <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E83" t="s">
         <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G83" t="s">
         <v>216</v>
@@ -8482,7 +8476,7 @@
         <v>31</v>
       </c>
       <c r="I83" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J83" t="s">
         <v>96</v>
@@ -8509,7 +8503,7 @@
         <v>31</v>
       </c>
       <c r="R83" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S83" t="s">
         <v>31</v>
@@ -8535,7 +8529,7 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B84" t="s">
         <v>154</v>
@@ -8544,13 +8538,13 @@
         <v>27</v>
       </c>
       <c r="D84" t="s">
+        <v>578</v>
+      </c>
+      <c r="E84" t="s">
+        <v>579</v>
+      </c>
+      <c r="F84" t="s">
         <v>580</v>
-      </c>
-      <c r="E84" t="s">
-        <v>581</v>
-      </c>
-      <c r="F84" t="s">
-        <v>582</v>
       </c>
       <c r="G84" t="s">
         <v>387</v>
@@ -8559,7 +8553,7 @@
         <v>31</v>
       </c>
       <c r="I84" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J84" t="s">
         <v>68</v>
@@ -8586,10 +8580,10 @@
         <v>31</v>
       </c>
       <c r="R84" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S84" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="T84" t="s">
         <v>455</v>
@@ -8612,7 +8606,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -8621,10 +8615,10 @@
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E85" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F85" t="s">
         <v>50</v>
@@ -8636,7 +8630,7 @@
         <v>31</v>
       </c>
       <c r="I85" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J85" t="s">
         <v>68</v>
@@ -8663,7 +8657,7 @@
         <v>31</v>
       </c>
       <c r="R85" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S85" t="s">
         <v>31</v>
@@ -8689,7 +8683,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -8698,13 +8692,13 @@
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E86" t="s">
         <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G86" t="s">
         <v>67</v>
@@ -8713,10 +8707,10 @@
         <v>31</v>
       </c>
       <c r="I86" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J86" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K86" t="s">
         <v>33</v>
@@ -8740,7 +8734,7 @@
         <v>31</v>
       </c>
       <c r="R86" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="S86" t="s">
         <v>31</v>
